--- a/guardrails/config/proprietary/proprietary_terms.xlsx
+++ b/guardrails/config/proprietary/proprietary_terms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="152">
   <si>
     <t>type</t>
   </si>
@@ -305,15 +305,6 @@
   </si>
   <si>
     <t>攻擊指導</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>國泰</t>
-  </si>
-  <si>
-    <t>cathay</t>
   </si>
   <si>
     <t>CUBLAB</t>
@@ -565,7 +556,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -872,7 +863,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1867,7 +1858,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>98</v>
@@ -1878,7 +1869,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>99</v>
@@ -1886,618 +1877,596 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="4">
+        <v>93</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B92" s="4">
-        <v>91</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B93" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B95" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4">
         <v>100</v>
       </c>
-      <c r="B99" s="4">
-        <v>98</v>
-      </c>
       <c r="C99" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B102" s="4">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B103" s="4">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B104" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B105" s="4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B106" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B107" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B108" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B109" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B110" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B111" s="4">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="21">
+      <c r="A112" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="4">
+        <v>115</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B112" s="4">
-        <v>112</v>
-      </c>
-      <c r="C112" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="21">
+      <c r="A113" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B113" s="4">
+        <v>116</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" s="4">
-        <v>113</v>
-      </c>
-      <c r="C113" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="21">
+      <c r="A114" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="4">
+        <v>117</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" s="4">
-        <v>115</v>
-      </c>
-      <c r="C114" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="21">
+      <c r="A115" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="4">
+        <v>118</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B115" s="4">
-        <v>116</v>
-      </c>
-      <c r="C115" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="21">
+      <c r="A116" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" s="4">
+        <v>119</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="4">
-        <v>117</v>
-      </c>
-      <c r="C116" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="21">
+      <c r="A117" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="4">
+        <v>120</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B117" s="4">
-        <v>118</v>
-      </c>
-      <c r="C117" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="21">
+      <c r="A118" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" s="4">
+        <v>121</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="4">
-        <v>119</v>
-      </c>
-      <c r="C118" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="21">
+      <c r="A119" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="4">
+        <v>122</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" s="4">
-        <v>120</v>
-      </c>
-      <c r="C119" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="21">
+      <c r="A120" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="4">
+        <v>123</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="4">
-        <v>121</v>
-      </c>
-      <c r="C120" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="21">
+      <c r="A121" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="4">
+        <v>124</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="4">
-        <v>122</v>
-      </c>
-      <c r="C121" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="21">
+      <c r="A122" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="4">
+        <v>125</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="4">
-        <v>123</v>
-      </c>
-      <c r="C122" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="21">
+      <c r="A123" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="4">
+        <v>126</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B123" s="4">
-        <v>124</v>
-      </c>
-      <c r="C123" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="21">
+      <c r="A124" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" s="4">
+        <v>127</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B124" s="4">
-        <v>125</v>
-      </c>
-      <c r="C124" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="21">
+      <c r="A125" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B125" s="4">
+        <v>128</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B125" s="4">
-        <v>126</v>
-      </c>
-      <c r="C125" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="21">
+      <c r="A126" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" s="4">
+        <v>129</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" s="4">
-        <v>127</v>
-      </c>
-      <c r="C126" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="21">
+      <c r="A127" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="4">
+        <v>130</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="4">
-        <v>128</v>
-      </c>
-      <c r="C127" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="21">
+      <c r="A128" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="4">
+        <v>131</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B128" s="4">
-        <v>129</v>
-      </c>
-      <c r="C128" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="21">
+      <c r="A129" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B129" s="4">
+        <v>132</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B129" s="4">
-        <v>130</v>
-      </c>
-      <c r="C129" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="21">
+      <c r="A130" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" s="4">
+        <v>133</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B130" s="4">
-        <v>131</v>
-      </c>
-      <c r="C130" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="21">
+      <c r="A131" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" s="4">
+        <v>134</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" s="4">
-        <v>132</v>
-      </c>
-      <c r="C131" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="21">
+      <c r="A132" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B132" s="4">
+        <v>135</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B132" s="4">
-        <v>133</v>
-      </c>
-      <c r="C132" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="21">
+      <c r="A133" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="4">
+        <v>136</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B133" s="4">
-        <v>134</v>
-      </c>
-      <c r="C133" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="21">
+      <c r="A134" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" s="4">
+        <v>137</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B134" s="4">
-        <v>135</v>
-      </c>
-      <c r="C134" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="21">
+      <c r="A135" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B135" s="4">
+        <v>138</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B135" s="4">
-        <v>136</v>
-      </c>
-      <c r="C135" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="21">
+      <c r="A136" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B136" s="4">
+        <v>139</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="4">
-        <v>137</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B137" s="4">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B138" s="4">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B139" s="4">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B140" s="4">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B141" s="4">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B142" s="4">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B143" s="4">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B144" s="4">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B145" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" s="4">
-        <v>147</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B147" s="4">
-        <v>148</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
